--- a/data/trans_orig/P19C10_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Clase-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C10_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Clase-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6205</v>
+        <v>5989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002149722033605552</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01146465005233069</v>
+        <v>0.01106510972218575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>3330</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1113</v>
+        <v>817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8612</v>
+        <v>9014</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006917946305872774</v>
+        <v>0.006917946305872776</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00231292040336198</v>
+        <v>0.00169687523020859</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01789151334079914</v>
+        <v>0.01872636242186194</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>4493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1531</v>
+        <v>1728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9975</v>
+        <v>11582</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.004394094877449955</v>
+        <v>0.004394094877449956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001497578879738575</v>
+        <v>0.001689717161967155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009754293073424396</v>
+        <v>0.01132643643370242</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>540099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>535058</v>
+        <v>535274</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>541263</v>
@@ -821,7 +821,7 @@
         <v>0.9978502779663945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9885353499476711</v>
+        <v>0.9889348902778143</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>477997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>472715</v>
+        <v>472313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480214</v>
+        <v>480510</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9930820536941272</v>
+        <v>0.9930820536941274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9821084866592008</v>
+        <v>0.9812736375781383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9976870795966379</v>
+        <v>0.9983031247697914</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1215</v>
@@ -854,19 +854,19 @@
         <v>1018097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1012615</v>
+        <v>1011008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1021059</v>
+        <v>1020862</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.99560590512255</v>
+        <v>0.9956059051225501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9902457069265757</v>
+        <v>0.9886735635662982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9985024211202613</v>
+        <v>0.9983102828380328</v>
       </c>
     </row>
     <row r="6">
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5582</v>
+        <v>6703</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.002462969799018257</v>
+        <v>0.002462969799018256</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01164439960271732</v>
+        <v>0.01398301371718475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -979,19 +979,19 @@
         <v>3506</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1211</v>
+        <v>1050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7911</v>
+        <v>8422</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.008388632509024547</v>
+        <v>0.00838863250902455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002897401449107335</v>
+        <v>0.002512427243676897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01892904597120831</v>
+        <v>0.02015272344817299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1000,19 +1000,19 @@
         <v>4686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1717</v>
+        <v>1805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10233</v>
+        <v>10095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005223011147576621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001913679509326483</v>
+        <v>0.002011670511589721</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0114050899041358</v>
+        <v>0.01125089632366129</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1029,16 @@
         <v>478151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473750</v>
+        <v>472629</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>479332</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9975370302009819</v>
+        <v>0.9975370302009817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9883556003972835</v>
+        <v>0.9860169862828148</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>414414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>410009</v>
+        <v>409498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416709</v>
+        <v>416870</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9916113674909754</v>
+        <v>0.9916113674909753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.981070954028792</v>
+        <v>0.9798472765518252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971025985508929</v>
+        <v>0.997487572756323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1053</v>
@@ -1071,19 +1071,19 @@
         <v>892567</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>887020</v>
+        <v>887158</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>895536</v>
+        <v>895448</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9947769888524234</v>
+        <v>0.9947769888524232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9885949100958642</v>
+        <v>0.9887491036763387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980863204906735</v>
+        <v>0.9979883294884103</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8538</v>
+        <v>9132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005304103778602793</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01840637712167637</v>
+        <v>0.01968663275930231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1196,19 +1196,19 @@
         <v>3397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9980</v>
+        <v>8164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01837982993894421</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004074133671341796</v>
+        <v>0.003945349169546846</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05399731400110756</v>
+        <v>0.04417196484580027</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1217,19 +1217,19 @@
         <v>5858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2051</v>
+        <v>2023</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12774</v>
+        <v>12538</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009029759046917277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003161607252273241</v>
+        <v>0.003118139137370583</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01969158523274175</v>
+        <v>0.01932828234004617</v>
       </c>
     </row>
     <row r="11">
@@ -1246,16 +1246,16 @@
         <v>461405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455327</v>
+        <v>454733</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>463865</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9946958962213972</v>
+        <v>0.994695896221397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9815936228783239</v>
+        <v>0.9803133672406977</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>181436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174853</v>
+        <v>176669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184080</v>
+        <v>184104</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9816201700610557</v>
+        <v>0.9816201700610558</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.946002685998892</v>
+        <v>0.9558280351541996</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9959258663286582</v>
+        <v>0.9960546508304532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>757</v>
@@ -1288,19 +1288,19 @@
         <v>642840</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635924</v>
+        <v>636160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646647</v>
+        <v>646675</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9909702409530827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9803084147672582</v>
+        <v>0.9806717176599538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9968383927477267</v>
+        <v>0.9968818608626294</v>
       </c>
     </row>
     <row r="12">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4841</v>
+        <v>5194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0008715680414023924</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.004418152903279965</v>
+        <v>0.004740112787993619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1413,19 +1413,19 @@
         <v>2467</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7204</v>
+        <v>6765</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002948190721938404</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0008152033500188438</v>
+        <v>0.00081882388008091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008609109202694259</v>
+        <v>0.00808472128678756</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1434,19 +1434,19 @@
         <v>3422</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>964</v>
+        <v>700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9451</v>
+        <v>8413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001770769875285468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0004986167645578411</v>
+        <v>0.0003620732780295114</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004890842301349531</v>
+        <v>0.004353481588679776</v>
       </c>
     </row>
     <row r="14">
@@ -1463,7 +1463,7 @@
         <v>1094744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1090858</v>
+        <v>1090505</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1095699</v>
@@ -1472,7 +1472,7 @@
         <v>0.9991284319585978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9955818470967199</v>
+        <v>0.9952598872120059</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1484,19 +1484,19 @@
         <v>834323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>829586</v>
+        <v>830025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>836108</v>
+        <v>836105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9970518092780615</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9913908907973061</v>
+        <v>0.9919152787132125</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9991847966499812</v>
+        <v>0.9991811761199191</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2279</v>
@@ -1505,19 +1505,19 @@
         <v>1929067</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1923038</v>
+        <v>1924076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1931525</v>
+        <v>1931789</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9982292301247143</v>
+        <v>0.9982292301247144</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9951091576986504</v>
+        <v>0.9956465184113201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9995013832354421</v>
+        <v>0.9996379267219705</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6735</v>
+        <v>6183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002652972275746934</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01320916945629636</v>
+        <v>0.01212681635699023</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1630,19 +1630,19 @@
         <v>4725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9240</v>
+        <v>9510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005955049813420335</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002602156642301468</v>
+        <v>0.002597487516438169</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01164445685160277</v>
+        <v>0.01198514781916023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1651,19 +1651,19 @@
         <v>6078</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2662</v>
+        <v>2721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12402</v>
+        <v>12359</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.004663336570081691</v>
+        <v>0.00466333657008169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002042770263001629</v>
+        <v>0.00208752862473149</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009515154752516965</v>
+        <v>0.00948266990491458</v>
       </c>
     </row>
     <row r="17">
@@ -1680,7 +1680,7 @@
         <v>508495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>503113</v>
+        <v>503665</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>509848</v>
@@ -1689,7 +1689,7 @@
         <v>0.997347027724253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9867908305437036</v>
+        <v>0.9878731836430089</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1701,19 +1701,19 @@
         <v>788780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>784265</v>
+        <v>783995</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>791440</v>
+        <v>791444</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9940449501865795</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9883555431483958</v>
+        <v>0.9880148521808397</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9973978433576984</v>
+        <v>0.9974025124835618</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1723</v>
@@ -1722,19 +1722,19 @@
         <v>1297275</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1290951</v>
+        <v>1290994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1300691</v>
+        <v>1300632</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9953366634299182</v>
+        <v>0.9953366634299183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9904848452474834</v>
+        <v>0.9905173300950854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979572297369982</v>
+        <v>0.9979124713752685</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8880</v>
+        <v>8666</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008158859889390588</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03932694549226933</v>
+        <v>0.03838163161407948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1847,19 +1847,19 @@
         <v>5559</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2738</v>
+        <v>2808</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11455</v>
+        <v>10718</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006789228527813826</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00334368238958632</v>
+        <v>0.003429744815879098</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01399115117151789</v>
+        <v>0.01309084266714748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1868,19 +1868,19 @@
         <v>7401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3597</v>
+        <v>3400</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15011</v>
+        <v>15127</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007085290033661595</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003443498878454882</v>
+        <v>0.003254671943128882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0143712506321294</v>
+        <v>0.01448249113804196</v>
       </c>
     </row>
     <row r="20">
@@ -1897,16 +1897,16 @@
         <v>223945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216907</v>
+        <v>217121</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>225787</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9918411401106094</v>
+        <v>0.9918411401106093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9606730545077304</v>
+        <v>0.9616183683859197</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>813183</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>807287</v>
+        <v>808024</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>816004</v>
+        <v>815934</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9932107714721861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9860088488284823</v>
+        <v>0.9869091573328526</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9966563176104138</v>
+        <v>0.9965702551841209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1222</v>
@@ -1939,19 +1939,19 @@
         <v>1037128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1029518</v>
+        <v>1029402</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1040932</v>
+        <v>1041129</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9929147099663383</v>
+        <v>0.9929147099663385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9856287493678704</v>
+        <v>0.9855175088619581</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9965565011215449</v>
+        <v>0.9967453280568712</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>8954</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3736</v>
+        <v>3536</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17959</v>
+        <v>17314</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.002700495804045855</v>
+        <v>0.002700495804045854</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001126688994995358</v>
+        <v>0.001066314025447654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005416160367795931</v>
+        <v>0.00522155780005432</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2064,19 +2064,19 @@
         <v>22984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15929</v>
+        <v>15359</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33188</v>
+        <v>32083</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.006505240614757232</v>
+        <v>0.006505240614757233</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004508521049691086</v>
+        <v>0.004347230100632494</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009393313903157197</v>
+        <v>0.009080689722328426</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2085,19 +2085,19 @@
         <v>31938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21732</v>
+        <v>22527</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44083</v>
+        <v>44664</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004663232255130274</v>
+        <v>0.004663232255130275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003173069357233129</v>
+        <v>0.003289102473135863</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006436465592272181</v>
+        <v>0.006521377660182756</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3306841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3297836</v>
+        <v>3298481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3312059</v>
+        <v>3312259</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9972995041959541</v>
+        <v>0.997299504195954</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9945838396322045</v>
+        <v>0.9947784421999443</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9988733110050048</v>
+        <v>0.9989336859745521</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5073</v>
@@ -2135,19 +2135,19 @@
         <v>3510134</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3499930</v>
+        <v>3501035</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3517189</v>
+        <v>3517759</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9934947593852428</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9906066860968429</v>
+        <v>0.9909193102776714</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.995491478950309</v>
+        <v>0.9956527698993675</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8249</v>
@@ -2156,19 +2156,19 @@
         <v>6816975</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6804830</v>
+        <v>6804249</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6827181</v>
+        <v>6826386</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9953367677448697</v>
+        <v>0.9953367677448699</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9935635344077277</v>
+        <v>0.9934786223398173</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9968269306427665</v>
+        <v>0.9967108975268641</v>
       </c>
     </row>
     <row r="24">
